--- a/downloads/atom-importer-standard.xlsx
+++ b/downloads/atom-importer-standard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richarddancy/sfuvault2/RDWork/01-9_DigitalInfrastructure/DRUtilities/AtoMImporter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radancy/sfuvault2/RDWork/02-6_Digitization/ContactSheets/F-18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{328B9FB4-09BA-AA41-8BC3-9D037324F522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B24C125-2BE9-7B45-B7A7-F4FB43B11203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,15 @@
     <sheet name="Taxonomies" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="access_status">Taxonomies!$A$4:$A$10</definedName>
-    <definedName name="container_type">Taxonomies!$A$13:$A$30</definedName>
+    <definedName name="access_status">Taxonomies!$A$4:$A$13</definedName>
+    <definedName name="container_type">Taxonomies!$A$16:$A$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>File</t>
   </si>
@@ -86,9 +84,6 @@
     <t>Source of title</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Pending review</t>
   </si>
   <si>
@@ -104,18 +99,9 @@
     <t>Taxonomies</t>
   </si>
   <si>
-    <t>Restricted in part</t>
-  </si>
-  <si>
-    <t>Restricted in whole</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
-    <t>Open: reading room or offline</t>
-  </si>
-  <si>
     <t>Clamshell box</t>
   </si>
   <si>
@@ -159,6 +145,27 @@
   </si>
   <si>
     <t>FireKing cabinet</t>
+  </si>
+  <si>
+    <t>Open, no restrictions</t>
+  </si>
+  <si>
+    <t>Open, reading room</t>
+  </si>
+  <si>
+    <t>Open, offline access</t>
+  </si>
+  <si>
+    <t>Open with enclosures</t>
+  </si>
+  <si>
+    <t>Open with redactions</t>
+  </si>
+  <si>
+    <t>Restricted with enclosures</t>
+  </si>
+  <si>
+    <t>Restricted</t>
   </si>
 </sst>
 </file>
@@ -245,7 +252,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -265,12 +272,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -286,9 +287,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -299,6 +297,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -650,26 +649,24 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="8.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="7" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" style="3" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="3"/>
     <col min="12" max="12" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.1640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="43.33203125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="43.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
@@ -685,7 +682,7 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -694,7 +691,7 @@
       <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -713,678 +710,670 @@
         <v>11</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="E2" s="1"/>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="9" t="str">
         <f t="shared" ref="G2:G65" si="0">IF(ISBLANK(B2),"","F-"&amp;A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2&amp;IF(ISBLANK(F2),"","-"&amp;F2))</f>
         <v/>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="E3" s="1"/>
-      <c r="G3" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="G3" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
       <c r="P3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="E4" s="1"/>
-      <c r="G4" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="G4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="E5" s="1"/>
-      <c r="G5" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="G5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
       <c r="P5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="E6" s="1"/>
-      <c r="G6" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="E7" s="1"/>
-      <c r="G7" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
       <c r="P7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="E8" s="1"/>
-      <c r="G8" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="E9" s="1"/>
-      <c r="G9" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
       <c r="P9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G10" s="11" t="str">
+      <c r="G10" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G11" s="11" t="str">
+      <c r="G11" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G12" s="11" t="str">
+      <c r="G12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G13" s="11" t="str">
+      <c r="G13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G14" s="11" t="str">
+      <c r="G14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G15" s="11" t="str">
+      <c r="G15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G16" s="11" t="str">
+      <c r="G16" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="11" t="str">
+      <c r="G17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G18" s="11" t="str">
+      <c r="G18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G19" s="11" t="str">
+      <c r="G19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G20" s="11" t="str">
+      <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G21" s="11" t="str">
+      <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G22" s="11" t="str">
+      <c r="G22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G23" s="11" t="str">
+      <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G24" s="11" t="str">
+      <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G25" s="11" t="str">
+      <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G26" s="11" t="str">
+      <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G27" s="11" t="str">
+      <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G28" s="11" t="str">
+      <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G29" s="11" t="str">
+      <c r="G29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G30" s="11" t="str">
+      <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G31" s="11" t="str">
+      <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G32" s="11" t="str">
+      <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G33" s="11" t="str">
+      <c r="G33" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G34" s="11" t="str">
+      <c r="G34" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G35" s="11" t="str">
+      <c r="G35" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G36" s="11" t="str">
+      <c r="G36" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G37" s="11" t="str">
+      <c r="G37" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G38" s="11" t="str">
+      <c r="G38" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G39" s="11" t="str">
+      <c r="G39" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G40" s="11" t="str">
+      <c r="G40" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G41" s="11" t="str">
+      <c r="G41" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G42" s="11" t="str">
+      <c r="G42" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G43" s="11" t="str">
+      <c r="G43" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G44" s="11" t="str">
+      <c r="G44" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G45" s="11" t="str">
+      <c r="G45" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G46" s="11" t="str">
+      <c r="G46" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G47" s="11" t="str">
+      <c r="G47" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G48" s="11" t="str">
+      <c r="G48" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G49" s="11" t="str">
+      <c r="G49" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G50" s="11" t="str">
+      <c r="G50" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G51" s="11" t="str">
+      <c r="G51" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G52" s="11" t="str">
+      <c r="G52" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G53" s="11" t="str">
+      <c r="G53" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G54" s="11" t="str">
+      <c r="G54" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G55" s="11" t="str">
+      <c r="G55" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G56" s="11" t="str">
+      <c r="G56" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G57" s="11" t="str">
+      <c r="G57" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G58" s="11" t="str">
+      <c r="G58" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G59" s="11" t="str">
+      <c r="G59" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G60" s="11" t="str">
+      <c r="G60" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G61" s="11" t="str">
+      <c r="G61" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G62" s="11" t="str">
+      <c r="G62" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G63" s="11" t="str">
+      <c r="G63" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G64" s="11" t="str">
+      <c r="G64" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G65" s="11" t="str">
+      <c r="G65" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G66" s="11" t="str">
+      <c r="G66" s="9" t="str">
         <f t="shared" ref="G66:G99" si="1">IF(ISBLANK(B66),"","F-"&amp;A66&amp;"-"&amp;B66&amp;"-"&amp;C66&amp;"-"&amp;D66&amp;"-"&amp;E66&amp;IF(ISBLANK(F66),"","-"&amp;F66))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G67" s="11" t="str">
+      <c r="G67" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G68" s="11" t="str">
+      <c r="G68" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G69" s="11" t="str">
+      <c r="G69" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G70" s="11" t="str">
+      <c r="G70" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G71" s="11" t="str">
+      <c r="G71" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G72" s="11" t="str">
+      <c r="G72" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G73" s="11" t="str">
+      <c r="G73" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G74" s="11" t="str">
+      <c r="G74" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G75" s="11" t="str">
+      <c r="G75" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G76" s="11" t="str">
+      <c r="G76" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G77" s="11" t="str">
+      <c r="G77" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G78" s="11" t="str">
+      <c r="G78" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G79" s="11" t="str">
+      <c r="G79" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G80" s="11" t="str">
+      <c r="G80" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G81" s="11" t="str">
+      <c r="G81" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G82" s="11" t="str">
+      <c r="G82" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G83" s="11" t="str">
+      <c r="G83" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G84" s="11" t="str">
+      <c r="G84" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G85" s="11" t="str">
+      <c r="G85" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G86" s="11" t="str">
+      <c r="G86" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G87" s="11" t="str">
+      <c r="G87" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G88" s="11" t="str">
+      <c r="G88" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G89" s="11" t="str">
+      <c r="G89" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G90" s="11" t="str">
+      <c r="G90" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G91" s="11" t="str">
+      <c r="G91" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G92" s="11" t="str">
+      <c r="G92" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G93" s="11" t="str">
+      <c r="G93" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G94" s="11" t="str">
+      <c r="G94" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G95" s="11" t="str">
+      <c r="G95" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G96" s="11" t="str">
+      <c r="G96" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G97" s="11" t="str">
+      <c r="G97" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G98" s="11" t="str">
+      <c r="G98" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="G99" s="11" t="str">
+      <c r="G99" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A100" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="16"/>
+      <c r="A100" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1403,143 +1392,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A8760C-FE55-BC48-97DE-0A95C426C231}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E7" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
+      <c r="A4" s="15"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
-        <v>17</v>
+      <c r="A12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>18</v>
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>19</v>
+      <c r="A15" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
